--- a/documents/the-book-nook.xlsx
+++ b/documents/the-book-nook.xlsx
@@ -671,7 +671,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="4">
-        <v>45371.0</v>
+        <v>45358.0</v>
       </c>
     </row>
     <row r="3">
